--- a/bom/اتومات/i7S.xlsx
+++ b/bom/اتومات/i7S.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B215"/>
+  <dimension ref="A1:B216"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3045,6 +3045,16 @@
         </is>
       </c>
     </row>
+    <row r="216">
+      <c r="A216" s="2" t="inlineStr">
+        <is>
+          <t>سایر</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
